--- a/medicine/Mort/Cimetière_et_monuments_aux_morts_de_Brouckerque/Cimetière_et_monuments_aux_morts_de_Brouckerque.xlsx
+++ b/medicine/Mort/Cimetière_et_monuments_aux_morts_de_Brouckerque/Cimetière_et_monuments_aux_morts_de_Brouckerque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_et_monuments_aux_morts_de_Brouckerque</t>
+          <t>Cimetière_et_monuments_aux_morts_de_Brouckerque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Brouckerque est le cimetière de la commune de Brouckerque dans le Nord.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_et_monuments_aux_morts_de_Brouckerque</t>
+          <t>Cimetière_et_monuments_aux_morts_de_Brouckerque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Cimetière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière se trouve au centre du bourg de Brouckerque. Il entoure l'Église Saint-Omer. Il abrite en grande majorité les tombes des personnes qui ont vécu à Brouckerque, dans le hameau de Coppenaxfort ou dans les communes voisines (Bourbourg, Looberghe etc.).
-Quelques personnalités de la commune y sont enterrées. Parmi elles, on pourra citer la tombe d'Anne-Marie Chevalier (1920-2005), ancien maire de la commune et médaillée du Conseil général du Nord en 1995[1].
+Quelques personnalités de la commune y sont enterrées. Parmi elles, on pourra citer la tombe d'Anne-Marie Chevalier (1920-2005), ancien maire de la commune et médaillée du Conseil général du Nord en 1995.
 			Église et cimetière côté sud.
 			Tombe d'Anne-Marie Chevalier.
 			La plus vieille tombe du cimetière, qui date du XIXe siècle.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_et_monuments_aux_morts_de_Brouckerque</t>
+          <t>Cimetière_et_monuments_aux_morts_de_Brouckerque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Monuments</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Outre les tombes, le cimetière abrite des monuments dédiés aux morts de la commune lors de différents conflits.
 Un premier Monument aux morts, consacré à la Première Guerre mondiale, a été inauguré le 17 avril 1922, lundi de Pâques. C'est une haute colonne surmontée d'une croix, où est inscrit la mention « A nos glorieux Morts de la terrible guerre » ainsi que les noms des victimes des deux guerres mondiales classées de la sorte : 1914, 1915, 1916, 1917, 1918, militaires 1939-1945, civils 1939-1945. Le maître d'œuvre en fut N. Colin. 700 personnes étaient présentes à l'inauguration et un enfant récita « l'ode aux Morts » de Victor Hugo.
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_et_monuments_aux_morts_de_Brouckerque</t>
+          <t>Cimetière_et_monuments_aux_morts_de_Brouckerque</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Anecdote</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière est le point le plus haut du village de Brouckerque. Il est situé à 2,3 mètres d'altitude.
 </t>
